--- a/overview.xlsx
+++ b/overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="2" r:id="rId1"/>
@@ -29,38 +29,38 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Ứng dụng học tiếng nhật: </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SHINROJP(進路)</t>
     <rPh sb="9" eb="11">
       <t>シンロ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Tên tiếng anh :</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Learning Japanese</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chức năng</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>①</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Từ điển ngữ pháp từ cấp độ n5-n1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -86,103 +86,103 @@
       </rPr>
       <t xml:space="preserve">i game dạng multiplayer </t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>③</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Luyện thi trắc nghiệm bao gồm các tính năng tương tự app dự án 1 (Learn and Quizz JP)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>④</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">(Cân nhắc thêm) Tính năng Feed </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Công nghệ sử dụng</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Client:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Android (Java)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Web</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Server:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Nodejs</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Database:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>MongoDB</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Mô tả:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hiển thị 1 câu tiếng việt hoặc tiếng nhật , phần đáp án là hiển thị câu trả lời bằng ngôn ngữ ngược lại với câu ở trên,</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Các button chức năng:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button gợi ý:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hiển thị gợi ý về ngữ pháp</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button hiển thị phiên âm:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button này ở phía dưới câu tiếng nhận, hiển thị cách đọc hiragana</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button đáp án:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hiện thị đáp của của câu</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button ngữ pháp:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Hiện thị cấu trức ngữ pháp của câu ở trên, cấp độ của ngữ pháp, ý nghĩa, cách sử dụng</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button tìm kiếm</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -209,35 +209,35 @@
       </rPr>
       <t>, hiển thị danh sách các câu theo từ điền vào ô tìm kiếm</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>（ ⊛）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Màn hình tìm kiếm có  ô để gõ text , button back quay lại màn hình trước, buttom tìm kiếm</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Buttom chuyển câu</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chuyển sang câu khác</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Buttom lịch sử</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Xem các câu đã làm phía trước đó</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Buttom Setting</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -263,106 +263,99 @@
       </rPr>
       <t>ời dùng lựa chọn cấp độ (n5-n1), và chế độ tiếng việt hoặc tiếng nhật</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Button chế độ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chuyển nhanh giữa tiếng nhật và tiếng việt</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve"> Game function:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Room game</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Option:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">Level </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>N5-&gt;N1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Kind</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>漢字</t>
     <rPh sb="0" eb="2">
       <t>カンジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>語彙</t>
     <rPh sb="0" eb="2">
       <t>ゴイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>文法</t>
     <rPh sb="0" eb="2">
       <t>ブンポウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Độ khó</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">Dễ </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Thường</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Khó</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Start game:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chức năng từ điển ngữ pháp-mẫu câu</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,14 +445,14 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3352,7 +3345,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3362,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3470,7 +3463,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3480,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3563,7 +3556,7 @@
       <c r="J65" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'(1)Từ điển ngữ pháp'!$A$1:$L$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'(2)Game'!$A$1:$N$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tổng quan'!$A$1:$I$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tổng quan'!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Ứng dụng học tiếng nhật: </t>
     <phoneticPr fontId="1"/>
@@ -86,18 +86,6 @@
       </rPr>
       <t xml:space="preserve">i game dạng multiplayer </t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Luyện thi trắc nghiệm bao gồm các tính năng tương tự app dự án 1 (Learn and Quizz JP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -348,6 +336,14 @@
   </si>
   <si>
     <t>Chức năng từ điển ngữ pháp-mẫu câu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tổng quan</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,15 +419,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -439,11 +441,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,6 +501,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3236,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3251,7 +3293,20 @@
     <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3267,12 +3322,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -3288,66 +3343,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="3" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3355,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3366,100 +3413,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3487,69 +3534,69 @@
   <sheetData>
     <row r="4" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F33" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J33" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
         <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
         <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.4">
